--- a/OBLIGATORIO PARALELO/Lista funciones para obligatorio.xlsx
+++ b/OBLIGATORIO PARALELO/Lista funciones para obligatorio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Nombre función</t>
   </si>
@@ -86,51 +86,21 @@
     <t>Precarga Fotos</t>
   </si>
   <si>
-    <t>Relacionar Usuario con foto</t>
-  </si>
-  <si>
     <t>Relacionar Inmueble con foto</t>
   </si>
   <si>
     <t>Actualizar Calificaciones Inmuebles</t>
   </si>
   <si>
-    <t>Validación Login</t>
-  </si>
-  <si>
-    <t>Validación Celular</t>
-  </si>
-  <si>
-    <t>Validación Email</t>
-  </si>
-  <si>
-    <t>Validación Contraseña</t>
-  </si>
-  <si>
     <t>Habilitar/Deshabilitar Inmueble</t>
   </si>
   <si>
-    <t>Confirmar Reserva</t>
-  </si>
-  <si>
-    <t>Obtener número de Usuario</t>
-  </si>
-  <si>
-    <t>Mostar Ver Más</t>
-  </si>
-  <si>
-    <t>Foto siguiente/Foto anterior</t>
-  </si>
-  <si>
     <t>Buscar Inmuebles</t>
   </si>
   <si>
     <t>Texto sin tildes ni mayúsculas</t>
   </si>
   <si>
-    <t>Limpiar divs</t>
-  </si>
-  <si>
     <t>Calculadora de Calificaciones</t>
   </si>
   <si>
@@ -143,13 +113,16 @@
     <t>Crear Select Cotización</t>
   </si>
   <si>
-    <t>Validación existencia User</t>
-  </si>
-  <si>
-    <t>Habilitar Botones Fotos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificar texto no vacío/Verificar si texto es número </t>
+  </si>
+  <si>
+    <t>Esta en primera entrega</t>
+  </si>
+  <si>
+    <t>Relacionar Usuario con inmueble</t>
+  </si>
+  <si>
+    <t>Limpiar divs /Limpiar inputs</t>
   </si>
 </sst>
 </file>
@@ -505,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
@@ -606,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -620,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
@@ -642,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
@@ -659,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -670,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
@@ -684,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -704,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -718,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>17</v>
@@ -732,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>17</v>
@@ -752,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
@@ -761,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -777,8 +750,11 @@
       <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -788,242 +764,126 @@
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>17</v>
+      <c r="G26" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
